--- a/myapp/app-server/data.xlsx
+++ b/myapp/app-server/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="52"/>
-    <sheet name="boards" r:id="rId7" sheetId="53"/>
-    <sheet name="projects" r:id="rId5" sheetId="54"/>
+    <sheet name="users" r:id="rId6" sheetId="79"/>
+    <sheet name="boards" r:id="rId7" sheetId="80"/>
+    <sheet name="projects" r:id="rId5" sheetId="81"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4124" uniqueCount="130">
   <si>
     <t>no</t>
   </si>
@@ -329,6 +329,81 @@
   </si>
   <si>
     <t>2024-07-26 14:23:23</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>user21</t>
+  </si>
+  <si>
+    <t>user21@test.com</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>user22</t>
+  </si>
+  <si>
+    <t>user22@test.co</t>
+  </si>
+  <si>
+    <t>010-1111-3333</t>
+  </si>
+  <si>
+    <t>user21x</t>
+  </si>
+  <si>
+    <t>user21x@test.com</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>user23</t>
+  </si>
+  <si>
+    <t>user23@test.com</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>user24</t>
+  </si>
+  <si>
+    <t>user24@test.com</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>user25</t>
+  </si>
+  <si>
+    <t>user25@test.com</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>user26</t>
+  </si>
+  <si>
+    <t>user26@test.com</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>user27</t>
+  </si>
+  <si>
+    <t>user27@test.com</t>
   </si>
 </sst>
 </file>
@@ -371,7 +446,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -602,19 +677,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -771,7 +846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F7"/>
   <sheetViews>
